--- a/pabi_budget_report/xlsx_template/rpt_budget_future_commit_summary.xlsx
+++ b/pabi_budget_report/xlsx_template/rpt_budget_future_commit_summary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Fiscal</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>Budget Name</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Close &amp; Uncommit</t>
   </si>
 </sst>
 </file>
@@ -63,7 +69,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +92,14 @@
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,13 +138,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -412,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -431,9 +446,10 @@
     <col min="9" max="9" width="15.375" customWidth="1"/>
     <col min="10" max="10" width="14.75" customWidth="1"/>
     <col min="11" max="11" width="15.125" customWidth="1"/>
+    <col min="12" max="12" width="18.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,9 +479,16 @@
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>